--- a/Win32/Binaries/Table/rewardlottery.xlsx
+++ b/Win32/Binaries/Table/rewardlottery.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="105">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,34 +278,117 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>image/palace_boss_icon/palace_icon_boss_unlock_2.png</t>
-  </si>
-  <si>
-    <t>#monster0001_headiconM.png</t>
+    <t>掉率和十连抽一样，但是佣兵是特定的佣兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#monster0005_headiconM.png</t>
+    <t>金币抽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#monster0006_headiconM.png</t>
+    <t>极小概率出佣兵碎片，主要给韵魂、能量原石、佣兵装备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#monster0008_headiconM.png</t>
+    <t>平均每次0.01个佣兵，其他用宝石、韵魂、金币、强化材料、能量原石、佣兵装备等代替</t>
+  </si>
+  <si>
+    <t>平均每次0.08个佣兵，其他用宝石、韵魂、金币、强化材料、能量原石、佣兵装备等代替</t>
+  </si>
+  <si>
+    <t>平均每次0.3个佣兵，其他用宝石、韵魂、金币、强化材料、能量原石、佣兵装备等代替；前20次基本每次都给佣兵/佣兵碎片</t>
+  </si>
+  <si>
+    <t>平均每次1个佣兵，其他用宝石、韵魂、金币、强化材料、能量原石、佣兵装备等代替</t>
+  </si>
+  <si>
+    <t>#hoarstone_icon_stoneMain_1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#monster0009_headiconM.png</t>
+    <t>#monster0005_headiconS.png;3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#monster0010_headiconM.png</t>
+    <t>#monster0006_headiconS.png;2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#monster0011_headiconM.png</t>
+    <t>#monster0008_headiconS.png;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#monster0009_headiconS.png;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#servantPic_0014.png</t>
+  </si>
+  <si>
+    <t>#servantPic_0005.png</t>
+  </si>
+  <si>
+    <t>#servantPic_0009.png</t>
+  </si>
+  <si>
+    <t>#servantPic_0010.png</t>
+  </si>
+  <si>
+    <t>#servantPic_0011.png</t>
+  </si>
+  <si>
+    <t>#servantPic_0001.png</t>
+  </si>
+  <si>
+    <t>#servantPic_0061.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#monster0061_headiconS.png;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#monster0040_headiconS.png;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#monster0041_headiconS.png;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动抽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣兵1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣兵2</t>
+  </si>
+  <si>
+    <t>佣兵3</t>
+  </si>
+  <si>
+    <t>宝石lv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣兵碎片1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣兵碎片2</t>
+  </si>
+  <si>
+    <t>佣兵碎片3</t>
+  </si>
+  <si>
+    <t>宝石lv5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石lv5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,15 +793,16 @@
   <dimension ref="A1:AQ42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32:J32"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="46.125" customWidth="1"/>
-    <col min="8" max="11" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12.75" customWidth="1"/>
     <col min="16" max="16" width="15.25" bestFit="1" customWidth="1"/>
@@ -989,13 +1073,13 @@
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>1001</v>
+        <v>11001</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>3600</v>
+        <v>600</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -1011,60 +1095,108 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1">
-        <v>100101</v>
+        <v>11001001</v>
       </c>
       <c r="L3" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1">
-        <v>100102</v>
+        <v>11001002</v>
       </c>
       <c r="N3" s="1">
         <v>1</v>
       </c>
       <c r="O3" s="1">
-        <v>100103</v>
+        <v>11001003</v>
       </c>
       <c r="P3" s="1">
         <v>2</v>
       </c>
       <c r="Q3" s="1">
-        <v>100104</v>
+        <v>11001004</v>
       </c>
       <c r="R3" s="1">
         <v>3</v>
       </c>
       <c r="S3" s="1">
-        <v>100105</v>
+        <v>11001005</v>
       </c>
       <c r="T3" s="1">
         <v>4</v>
       </c>
       <c r="U3" s="1">
-        <v>100106</v>
+        <v>11001006</v>
       </c>
       <c r="V3" s="1">
         <v>5</v>
       </c>
       <c r="W3" s="1">
-        <v>100107</v>
+        <v>11001007</v>
       </c>
       <c r="X3" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>11001008</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>11001009</v>
+      </c>
+      <c r="AB3">
+        <v>8</v>
+      </c>
+      <c r="AC3">
+        <v>11001010</v>
+      </c>
+      <c r="AD3">
+        <v>9</v>
+      </c>
+      <c r="AE3">
+        <v>11001011</v>
+      </c>
+      <c r="AF3">
         <v>10</v>
       </c>
-      <c r="Y3" s="1">
-        <v>100108</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>100109</v>
+      <c r="AG3">
+        <v>11001012</v>
+      </c>
+      <c r="AH3">
+        <v>11</v>
+      </c>
+      <c r="AI3">
+        <v>11001013</v>
+      </c>
+      <c r="AJ3">
+        <v>12</v>
+      </c>
+      <c r="AK3">
+        <v>11001014</v>
+      </c>
+      <c r="AL3">
+        <v>13</v>
+      </c>
+      <c r="AM3">
+        <v>11001015</v>
+      </c>
+      <c r="AN3">
+        <v>14</v>
+      </c>
+      <c r="AO3">
+        <v>11001016</v>
+      </c>
+      <c r="AP3">
+        <v>15</v>
+      </c>
+      <c r="AQ3">
+        <v>11001017</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>2001</v>
+        <v>12001</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1086,60 +1218,60 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1">
-        <v>200101</v>
+        <v>12001001</v>
       </c>
       <c r="L4" s="1">
         <v>5</v>
       </c>
       <c r="M4" s="1">
-        <v>200102</v>
+        <v>12001002</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
       </c>
       <c r="O4" s="1">
-        <v>200103</v>
+        <v>12001003</v>
       </c>
       <c r="P4" s="1">
         <v>2</v>
       </c>
       <c r="Q4" s="1">
-        <v>200104</v>
+        <v>12001004</v>
       </c>
       <c r="R4" s="1">
         <v>3</v>
       </c>
       <c r="S4" s="1">
-        <v>200105</v>
+        <v>12001005</v>
       </c>
       <c r="T4" s="1">
         <v>4</v>
       </c>
       <c r="U4" s="1">
-        <v>200106</v>
+        <v>12001006</v>
       </c>
       <c r="V4" s="1">
         <v>5</v>
       </c>
       <c r="W4" s="1">
-        <v>200107</v>
+        <v>12001007</v>
       </c>
       <c r="X4" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y4" s="1">
-        <v>200108</v>
+        <v>12001008</v>
       </c>
       <c r="Z4" s="1">
         <v>7</v>
       </c>
       <c r="AA4" s="1">
-        <v>200109</v>
+        <v>12001009</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>3001</v>
+        <v>13001</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -1151,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1161,66 +1293,66 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1">
-        <v>300101</v>
+        <v>13001001</v>
       </c>
       <c r="L5" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M5" s="1">
-        <v>300102</v>
+        <v>13001002</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
       </c>
       <c r="O5" s="1">
-        <v>300103</v>
+        <v>13001003</v>
       </c>
       <c r="P5" s="1">
         <v>2</v>
       </c>
       <c r="Q5" s="1">
-        <v>300104</v>
+        <v>13001004</v>
       </c>
       <c r="R5" s="1">
         <v>3</v>
       </c>
       <c r="S5" s="1">
-        <v>300105</v>
+        <v>13001005</v>
       </c>
       <c r="T5" s="1">
         <v>4</v>
       </c>
       <c r="U5" s="1">
-        <v>300106</v>
+        <v>13001006</v>
       </c>
       <c r="V5" s="1">
         <v>5</v>
       </c>
       <c r="W5" s="1">
-        <v>300107</v>
+        <v>13001007</v>
       </c>
       <c r="X5" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y5" s="1">
-        <v>300108</v>
+        <v>13001008</v>
       </c>
       <c r="Z5" s="1">
         <v>7</v>
       </c>
       <c r="AA5" s="1">
-        <v>300109</v>
+        <v>13001009</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>4001</v>
+        <v>14001</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>36000</v>
+        <v>72000</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -1236,66 +1368,66 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1">
-        <v>400101</v>
+        <v>14001001</v>
       </c>
       <c r="L6" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M6" s="1">
-        <v>400102</v>
+        <v>14001002</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
       </c>
       <c r="O6" s="1">
-        <v>400103</v>
+        <v>14001003</v>
       </c>
       <c r="P6" s="1">
         <v>2</v>
       </c>
       <c r="Q6" s="1">
-        <v>400104</v>
+        <v>14001004</v>
       </c>
       <c r="R6" s="1">
         <v>3</v>
       </c>
       <c r="S6" s="1">
-        <v>400105</v>
+        <v>14001005</v>
       </c>
       <c r="T6" s="1">
         <v>4</v>
       </c>
       <c r="U6" s="1">
-        <v>400106</v>
+        <v>14001006</v>
       </c>
       <c r="V6" s="1">
         <v>5</v>
       </c>
       <c r="W6" s="1">
-        <v>400107</v>
+        <v>14001007</v>
       </c>
       <c r="X6" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y6" s="1">
-        <v>400108</v>
+        <v>14001008</v>
       </c>
       <c r="Z6" s="1">
         <v>7</v>
       </c>
       <c r="AA6" s="1">
-        <v>400109</v>
+        <v>14001009</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>4002</v>
+        <v>14002</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>36000</v>
+        <v>72000</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1311,66 +1443,66 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
-        <v>400201</v>
+        <v>14002001</v>
       </c>
       <c r="L7" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M7" s="1">
-        <v>400202</v>
+        <v>14002002</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
       </c>
       <c r="O7" s="1">
-        <v>400203</v>
+        <v>14002003</v>
       </c>
       <c r="P7" s="1">
         <v>2</v>
       </c>
       <c r="Q7" s="1">
-        <v>400204</v>
+        <v>14002004</v>
       </c>
       <c r="R7" s="1">
         <v>3</v>
       </c>
       <c r="S7" s="1">
-        <v>400205</v>
+        <v>14002005</v>
       </c>
       <c r="T7" s="1">
         <v>4</v>
       </c>
       <c r="U7" s="1">
-        <v>400206</v>
+        <v>14002006</v>
       </c>
       <c r="V7" s="1">
         <v>5</v>
       </c>
       <c r="W7" s="1">
-        <v>400207</v>
+        <v>14002007</v>
       </c>
       <c r="X7" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y7" s="1">
-        <v>400208</v>
+        <v>14002008</v>
       </c>
       <c r="Z7" s="1">
         <v>7</v>
       </c>
       <c r="AA7" s="1">
-        <v>400209</v>
+        <v>14002009</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>4003</v>
+        <v>14003</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>36000</v>
+        <v>72000</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1386,66 +1518,66 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1">
-        <v>400301</v>
+        <v>14003001</v>
       </c>
       <c r="L8" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M8" s="1">
-        <v>400302</v>
+        <v>14003002</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
       </c>
       <c r="O8" s="1">
-        <v>400303</v>
+        <v>14003003</v>
       </c>
       <c r="P8" s="1">
         <v>2</v>
       </c>
       <c r="Q8" s="1">
-        <v>400304</v>
+        <v>14003004</v>
       </c>
       <c r="R8" s="1">
         <v>3</v>
       </c>
       <c r="S8" s="1">
-        <v>400305</v>
+        <v>14003005</v>
       </c>
       <c r="T8" s="1">
         <v>4</v>
       </c>
       <c r="U8" s="1">
-        <v>400306</v>
+        <v>14003006</v>
       </c>
       <c r="V8" s="1">
         <v>5</v>
       </c>
       <c r="W8" s="1">
-        <v>400307</v>
+        <v>14003007</v>
       </c>
       <c r="X8" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y8" s="1">
-        <v>400308</v>
+        <v>14003008</v>
       </c>
       <c r="Z8" s="1">
         <v>7</v>
       </c>
       <c r="AA8" s="1">
-        <v>400309</v>
+        <v>14003009</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>4004</v>
+        <v>14004</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>36000</v>
+        <v>72000</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1461,66 +1593,66 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1">
-        <v>400401</v>
+        <v>14004001</v>
       </c>
       <c r="L9" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M9" s="1">
-        <v>400402</v>
+        <v>14004002</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
       </c>
       <c r="O9" s="1">
-        <v>400403</v>
+        <v>14004003</v>
       </c>
       <c r="P9" s="1">
         <v>2</v>
       </c>
       <c r="Q9" s="1">
-        <v>400404</v>
+        <v>14004004</v>
       </c>
       <c r="R9" s="1">
         <v>3</v>
       </c>
       <c r="S9" s="1">
-        <v>400405</v>
+        <v>14004005</v>
       </c>
       <c r="T9" s="1">
         <v>4</v>
       </c>
       <c r="U9" s="1">
-        <v>400406</v>
+        <v>14004006</v>
       </c>
       <c r="V9" s="1">
         <v>5</v>
       </c>
       <c r="W9" s="1">
-        <v>400407</v>
+        <v>14004007</v>
       </c>
       <c r="X9" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y9" s="1">
-        <v>400408</v>
+        <v>14004008</v>
       </c>
       <c r="Z9" s="1">
         <v>7</v>
       </c>
       <c r="AA9" s="1">
-        <v>400409</v>
+        <v>14004009</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>4005</v>
+        <v>14005</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>36000</v>
+        <v>72000</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1536,66 +1668,66 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1">
-        <v>400501</v>
+        <v>14005001</v>
       </c>
       <c r="L10" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M10" s="1">
-        <v>400502</v>
+        <v>14005002</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
       </c>
       <c r="O10" s="1">
-        <v>400503</v>
+        <v>14005003</v>
       </c>
       <c r="P10" s="1">
         <v>2</v>
       </c>
       <c r="Q10" s="1">
-        <v>400504</v>
+        <v>14005004</v>
       </c>
       <c r="R10" s="1">
         <v>3</v>
       </c>
       <c r="S10" s="1">
-        <v>400505</v>
+        <v>14005005</v>
       </c>
       <c r="T10" s="1">
         <v>4</v>
       </c>
       <c r="U10" s="1">
-        <v>400506</v>
+        <v>14005006</v>
       </c>
       <c r="V10" s="1">
         <v>5</v>
       </c>
       <c r="W10" s="1">
-        <v>400507</v>
+        <v>14005007</v>
       </c>
       <c r="X10" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y10" s="1">
-        <v>400508</v>
+        <v>14005008</v>
       </c>
       <c r="Z10" s="1">
         <v>7</v>
       </c>
       <c r="AA10" s="1">
-        <v>400509</v>
+        <v>14005009</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>4006</v>
+        <v>14006</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>36000</v>
+        <v>72000</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1611,66 +1743,66 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1">
-        <v>400601</v>
+        <v>14006001</v>
       </c>
       <c r="L11" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M11" s="1">
-        <v>400602</v>
+        <v>14006002</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
       </c>
       <c r="O11" s="1">
-        <v>400603</v>
+        <v>14006003</v>
       </c>
       <c r="P11" s="1">
         <v>2</v>
       </c>
       <c r="Q11" s="1">
-        <v>400604</v>
+        <v>14006004</v>
       </c>
       <c r="R11" s="1">
         <v>3</v>
       </c>
       <c r="S11" s="1">
-        <v>400605</v>
+        <v>14006005</v>
       </c>
       <c r="T11" s="1">
         <v>4</v>
       </c>
       <c r="U11" s="1">
-        <v>400606</v>
+        <v>14006006</v>
       </c>
       <c r="V11" s="1">
         <v>5</v>
       </c>
       <c r="W11" s="1">
-        <v>400607</v>
+        <v>14006007</v>
       </c>
       <c r="X11" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y11" s="1">
-        <v>400608</v>
+        <v>14006008</v>
       </c>
       <c r="Z11" s="1">
         <v>7</v>
       </c>
       <c r="AA11" s="1">
-        <v>400609</v>
+        <v>14006009</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>4007</v>
+        <v>14007</v>
       </c>
       <c r="B12" s="1">
         <v>4</v>
       </c>
       <c r="C12" s="1">
-        <v>36000</v>
+        <v>72000</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1686,66 +1818,66 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1">
-        <v>400701</v>
+        <v>14007001</v>
       </c>
       <c r="L12" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M12" s="1">
-        <v>400702</v>
+        <v>14007002</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
       </c>
       <c r="O12" s="1">
-        <v>400703</v>
+        <v>14007003</v>
       </c>
       <c r="P12" s="1">
         <v>2</v>
       </c>
       <c r="Q12" s="1">
-        <v>400704</v>
+        <v>14007004</v>
       </c>
       <c r="R12" s="1">
         <v>3</v>
       </c>
       <c r="S12" s="1">
-        <v>400705</v>
+        <v>14007005</v>
       </c>
       <c r="T12" s="1">
         <v>4</v>
       </c>
       <c r="U12" s="1">
-        <v>400706</v>
+        <v>14007006</v>
       </c>
       <c r="V12" s="1">
         <v>5</v>
       </c>
       <c r="W12" s="1">
-        <v>400707</v>
+        <v>14007007</v>
       </c>
       <c r="X12" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y12" s="1">
-        <v>400708</v>
+        <v>14007008</v>
       </c>
       <c r="Z12" s="1">
         <v>7</v>
       </c>
       <c r="AA12" s="1">
-        <v>400709</v>
+        <v>14007009</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>4008</v>
+        <v>14008</v>
       </c>
       <c r="B13" s="1">
         <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>36000</v>
+        <v>72000</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1761,66 +1893,66 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1">
-        <v>400801</v>
+        <v>14008001</v>
       </c>
       <c r="L13" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M13" s="1">
-        <v>400802</v>
+        <v>14008002</v>
       </c>
       <c r="N13" s="1">
         <v>1</v>
       </c>
       <c r="O13" s="1">
-        <v>400803</v>
+        <v>14008003</v>
       </c>
       <c r="P13" s="1">
         <v>2</v>
       </c>
       <c r="Q13" s="1">
-        <v>400804</v>
+        <v>14008004</v>
       </c>
       <c r="R13" s="1">
         <v>3</v>
       </c>
       <c r="S13" s="1">
-        <v>400805</v>
+        <v>14008005</v>
       </c>
       <c r="T13" s="1">
         <v>4</v>
       </c>
       <c r="U13" s="1">
-        <v>400806</v>
+        <v>14008006</v>
       </c>
       <c r="V13" s="1">
         <v>5</v>
       </c>
       <c r="W13" s="1">
-        <v>400807</v>
+        <v>14008007</v>
       </c>
       <c r="X13" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y13" s="1">
-        <v>400808</v>
+        <v>14008008</v>
       </c>
       <c r="Z13" s="1">
         <v>7</v>
       </c>
       <c r="AA13" s="1">
-        <v>400809</v>
+        <v>14008009</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>4009</v>
+        <v>14009</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
       </c>
       <c r="C14" s="1">
-        <v>36000</v>
+        <v>72000</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1836,66 +1968,66 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1">
-        <v>400901</v>
+        <v>14009001</v>
       </c>
       <c r="L14" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M14" s="1">
-        <v>400902</v>
+        <v>14009002</v>
       </c>
       <c r="N14" s="1">
         <v>1</v>
       </c>
       <c r="O14" s="1">
-        <v>400903</v>
+        <v>14009003</v>
       </c>
       <c r="P14" s="1">
         <v>2</v>
       </c>
       <c r="Q14" s="1">
-        <v>400904</v>
+        <v>14009004</v>
       </c>
       <c r="R14" s="1">
         <v>3</v>
       </c>
       <c r="S14" s="1">
-        <v>400905</v>
+        <v>14009005</v>
       </c>
       <c r="T14" s="1">
         <v>4</v>
       </c>
       <c r="U14" s="1">
-        <v>400906</v>
+        <v>14009006</v>
       </c>
       <c r="V14" s="1">
         <v>5</v>
       </c>
       <c r="W14" s="1">
-        <v>400907</v>
+        <v>14009007</v>
       </c>
       <c r="X14" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y14" s="1">
-        <v>400908</v>
+        <v>14009008</v>
       </c>
       <c r="Z14" s="1">
         <v>7</v>
       </c>
       <c r="AA14" s="1">
-        <v>400909</v>
+        <v>14009009</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>4010</v>
+        <v>14010</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
       </c>
       <c r="C15" s="1">
-        <v>36000</v>
+        <v>72000</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1911,60 +2043,60 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1">
-        <v>401001</v>
+        <v>14010001</v>
       </c>
       <c r="L15" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M15" s="1">
-        <v>401002</v>
+        <v>14010002</v>
       </c>
       <c r="N15" s="1">
         <v>1</v>
       </c>
       <c r="O15" s="1">
-        <v>401003</v>
+        <v>14010003</v>
       </c>
       <c r="P15" s="1">
         <v>2</v>
       </c>
       <c r="Q15" s="1">
-        <v>401004</v>
+        <v>14010004</v>
       </c>
       <c r="R15" s="1">
         <v>3</v>
       </c>
       <c r="S15" s="1">
-        <v>401005</v>
+        <v>14010005</v>
       </c>
       <c r="T15" s="1">
         <v>4</v>
       </c>
       <c r="U15" s="1">
-        <v>401006</v>
+        <v>14010006</v>
       </c>
       <c r="V15" s="1">
         <v>5</v>
       </c>
       <c r="W15" s="1">
-        <v>401007</v>
+        <v>14010007</v>
       </c>
       <c r="X15" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y15" s="1">
-        <v>401008</v>
+        <v>14010008</v>
       </c>
       <c r="Z15" s="1">
         <v>7</v>
       </c>
       <c r="AA15" s="1">
-        <v>401009</v>
+        <v>14010009</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>5001</v>
+        <v>15001</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
@@ -1976,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1986,60 +2118,60 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1">
-        <v>500101</v>
+        <v>15001001</v>
       </c>
       <c r="L16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M16" s="1">
-        <v>500102</v>
+        <v>15001002</v>
       </c>
       <c r="N16" s="1">
         <v>1</v>
       </c>
       <c r="O16" s="1">
-        <v>500103</v>
+        <v>15001003</v>
       </c>
       <c r="P16" s="1">
         <v>2</v>
       </c>
       <c r="Q16" s="1">
-        <v>500104</v>
+        <v>15001004</v>
       </c>
       <c r="R16" s="1">
         <v>3</v>
       </c>
       <c r="S16" s="1">
-        <v>500105</v>
+        <v>15001005</v>
       </c>
       <c r="T16" s="1">
         <v>4</v>
       </c>
       <c r="U16" s="1">
-        <v>500106</v>
+        <v>15001006</v>
       </c>
       <c r="V16" s="1">
         <v>5</v>
       </c>
       <c r="W16" s="1">
-        <v>500107</v>
+        <v>15001007</v>
       </c>
       <c r="X16" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y16" s="1">
-        <v>500108</v>
+        <v>15001008</v>
       </c>
       <c r="Z16" s="1">
         <v>7</v>
       </c>
       <c r="AA16" s="1">
-        <v>500109</v>
+        <v>15001009</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>5002</v>
+        <v>15002</v>
       </c>
       <c r="B17" s="1">
         <v>5</v>
@@ -2051,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2061,60 +2193,60 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1">
-        <v>500201</v>
+        <v>15002001</v>
       </c>
       <c r="L17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M17" s="1">
-        <v>500202</v>
+        <v>15002002</v>
       </c>
       <c r="N17" s="1">
         <v>1</v>
       </c>
       <c r="O17" s="1">
-        <v>500203</v>
+        <v>15002003</v>
       </c>
       <c r="P17" s="1">
         <v>2</v>
       </c>
       <c r="Q17" s="1">
-        <v>500204</v>
+        <v>15002004</v>
       </c>
       <c r="R17" s="1">
         <v>3</v>
       </c>
       <c r="S17" s="1">
-        <v>500205</v>
+        <v>15002005</v>
       </c>
       <c r="T17" s="1">
         <v>4</v>
       </c>
       <c r="U17" s="1">
-        <v>500206</v>
+        <v>15002006</v>
       </c>
       <c r="V17" s="1">
         <v>5</v>
       </c>
       <c r="W17" s="1">
-        <v>500207</v>
+        <v>15002007</v>
       </c>
       <c r="X17" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y17" s="1">
-        <v>500208</v>
+        <v>15002008</v>
       </c>
       <c r="Z17" s="1">
         <v>7</v>
       </c>
       <c r="AA17" s="1">
-        <v>500209</v>
+        <v>15002009</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>5003</v>
+        <v>15003</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -2126,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -2136,60 +2268,60 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1">
-        <v>500301</v>
+        <v>15003001</v>
       </c>
       <c r="L18" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M18" s="1">
-        <v>500302</v>
+        <v>15003002</v>
       </c>
       <c r="N18" s="1">
         <v>1</v>
       </c>
       <c r="O18" s="1">
-        <v>500303</v>
+        <v>15003003</v>
       </c>
       <c r="P18" s="1">
         <v>2</v>
       </c>
       <c r="Q18" s="1">
-        <v>500304</v>
+        <v>15003004</v>
       </c>
       <c r="R18" s="1">
         <v>3</v>
       </c>
       <c r="S18" s="1">
-        <v>500305</v>
+        <v>15003005</v>
       </c>
       <c r="T18" s="1">
         <v>4</v>
       </c>
       <c r="U18" s="1">
-        <v>500306</v>
+        <v>15003006</v>
       </c>
       <c r="V18" s="1">
         <v>5</v>
       </c>
       <c r="W18" s="1">
-        <v>500307</v>
+        <v>15003007</v>
       </c>
       <c r="X18" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y18" s="1">
-        <v>500308</v>
+        <v>15003008</v>
       </c>
       <c r="Z18" s="1">
         <v>7</v>
       </c>
       <c r="AA18" s="1">
-        <v>500309</v>
+        <v>15003009</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>5004</v>
+        <v>15004</v>
       </c>
       <c r="B19" s="1">
         <v>5</v>
@@ -2201,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -2211,60 +2343,60 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1">
-        <v>500401</v>
+        <v>15004001</v>
       </c>
       <c r="L19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M19" s="1">
-        <v>500402</v>
+        <v>15004002</v>
       </c>
       <c r="N19" s="1">
         <v>1</v>
       </c>
       <c r="O19" s="1">
-        <v>500403</v>
+        <v>15004003</v>
       </c>
       <c r="P19" s="1">
         <v>2</v>
       </c>
       <c r="Q19" s="1">
-        <v>500404</v>
+        <v>15004004</v>
       </c>
       <c r="R19" s="1">
         <v>3</v>
       </c>
       <c r="S19" s="1">
-        <v>500405</v>
+        <v>15004005</v>
       </c>
       <c r="T19" s="1">
         <v>4</v>
       </c>
       <c r="U19" s="1">
-        <v>500406</v>
+        <v>15004006</v>
       </c>
       <c r="V19" s="1">
         <v>5</v>
       </c>
       <c r="W19" s="1">
-        <v>500407</v>
+        <v>15004007</v>
       </c>
       <c r="X19" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y19" s="1">
-        <v>500408</v>
+        <v>15004008</v>
       </c>
       <c r="Z19" s="1">
         <v>7</v>
       </c>
       <c r="AA19" s="1">
-        <v>500409</v>
+        <v>15004009</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>5005</v>
+        <v>15005</v>
       </c>
       <c r="B20" s="1">
         <v>5</v>
@@ -2276,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -2286,60 +2418,60 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1">
-        <v>500501</v>
+        <v>15005001</v>
       </c>
       <c r="L20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M20" s="1">
-        <v>500502</v>
+        <v>15005002</v>
       </c>
       <c r="N20" s="1">
         <v>1</v>
       </c>
       <c r="O20" s="1">
-        <v>500503</v>
+        <v>15005003</v>
       </c>
       <c r="P20" s="1">
         <v>2</v>
       </c>
       <c r="Q20" s="1">
-        <v>500504</v>
+        <v>15005004</v>
       </c>
       <c r="R20" s="1">
         <v>3</v>
       </c>
       <c r="S20" s="1">
-        <v>500505</v>
+        <v>15005005</v>
       </c>
       <c r="T20" s="1">
         <v>4</v>
       </c>
       <c r="U20" s="1">
-        <v>500506</v>
+        <v>15005006</v>
       </c>
       <c r="V20" s="1">
         <v>5</v>
       </c>
       <c r="W20" s="1">
-        <v>500507</v>
+        <v>15005007</v>
       </c>
       <c r="X20" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y20" s="1">
-        <v>500508</v>
+        <v>15005008</v>
       </c>
       <c r="Z20" s="1">
         <v>7</v>
       </c>
       <c r="AA20" s="1">
-        <v>500509</v>
+        <v>15005009</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>5006</v>
+        <v>15006</v>
       </c>
       <c r="B21" s="1">
         <v>5</v>
@@ -2351,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2361,60 +2493,60 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1">
-        <v>500601</v>
+        <v>15006001</v>
       </c>
       <c r="L21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M21" s="1">
-        <v>500602</v>
+        <v>15006002</v>
       </c>
       <c r="N21" s="1">
         <v>1</v>
       </c>
       <c r="O21" s="1">
-        <v>500603</v>
+        <v>15006003</v>
       </c>
       <c r="P21" s="1">
         <v>2</v>
       </c>
       <c r="Q21" s="1">
-        <v>500604</v>
+        <v>15006004</v>
       </c>
       <c r="R21" s="1">
         <v>3</v>
       </c>
       <c r="S21" s="1">
-        <v>500605</v>
+        <v>15006005</v>
       </c>
       <c r="T21" s="1">
         <v>4</v>
       </c>
       <c r="U21" s="1">
-        <v>500606</v>
+        <v>15006006</v>
       </c>
       <c r="V21" s="1">
         <v>5</v>
       </c>
       <c r="W21" s="1">
-        <v>500607</v>
+        <v>15006007</v>
       </c>
       <c r="X21" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y21" s="1">
-        <v>500608</v>
+        <v>15006008</v>
       </c>
       <c r="Z21" s="1">
         <v>7</v>
       </c>
       <c r="AA21" s="1">
-        <v>500609</v>
+        <v>15006009</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>5007</v>
+        <v>15007</v>
       </c>
       <c r="B22" s="1">
         <v>5</v>
@@ -2426,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2436,60 +2568,60 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1">
-        <v>500701</v>
+        <v>15007001</v>
       </c>
       <c r="L22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M22" s="1">
-        <v>500702</v>
+        <v>15007002</v>
       </c>
       <c r="N22" s="1">
         <v>1</v>
       </c>
       <c r="O22" s="1">
-        <v>500703</v>
+        <v>15007003</v>
       </c>
       <c r="P22" s="1">
         <v>2</v>
       </c>
       <c r="Q22" s="1">
-        <v>500704</v>
+        <v>15007004</v>
       </c>
       <c r="R22" s="1">
         <v>3</v>
       </c>
       <c r="S22" s="1">
-        <v>500705</v>
+        <v>15007005</v>
       </c>
       <c r="T22" s="1">
         <v>4</v>
       </c>
       <c r="U22" s="1">
-        <v>500706</v>
+        <v>15007006</v>
       </c>
       <c r="V22" s="1">
         <v>5</v>
       </c>
       <c r="W22" s="1">
-        <v>500707</v>
+        <v>15007007</v>
       </c>
       <c r="X22" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y22" s="1">
-        <v>500708</v>
+        <v>15007008</v>
       </c>
       <c r="Z22" s="1">
         <v>7</v>
       </c>
       <c r="AA22" s="1">
-        <v>500709</v>
+        <v>15007009</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>5008</v>
+        <v>15008</v>
       </c>
       <c r="B23" s="1">
         <v>5</v>
@@ -2501,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2511,60 +2643,60 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1">
-        <v>500801</v>
+        <v>15008001</v>
       </c>
       <c r="L23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M23" s="1">
-        <v>500802</v>
+        <v>15008002</v>
       </c>
       <c r="N23" s="1">
         <v>1</v>
       </c>
       <c r="O23" s="1">
-        <v>500803</v>
+        <v>15008003</v>
       </c>
       <c r="P23" s="1">
         <v>2</v>
       </c>
       <c r="Q23" s="1">
-        <v>500804</v>
+        <v>15008004</v>
       </c>
       <c r="R23" s="1">
         <v>3</v>
       </c>
       <c r="S23" s="1">
-        <v>500805</v>
+        <v>15008005</v>
       </c>
       <c r="T23" s="1">
         <v>4</v>
       </c>
       <c r="U23" s="1">
-        <v>500806</v>
+        <v>15008006</v>
       </c>
       <c r="V23" s="1">
         <v>5</v>
       </c>
       <c r="W23" s="1">
-        <v>500807</v>
+        <v>15008007</v>
       </c>
       <c r="X23" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y23" s="1">
-        <v>500808</v>
+        <v>15008008</v>
       </c>
       <c r="Z23" s="1">
         <v>7</v>
       </c>
       <c r="AA23" s="1">
-        <v>500809</v>
+        <v>15008009</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>5009</v>
+        <v>15009</v>
       </c>
       <c r="B24" s="1">
         <v>5</v>
@@ -2576,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2586,60 +2718,60 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1">
-        <v>500901</v>
+        <v>15009001</v>
       </c>
       <c r="L24" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M24" s="1">
-        <v>500902</v>
+        <v>15009002</v>
       </c>
       <c r="N24" s="1">
         <v>1</v>
       </c>
       <c r="O24" s="1">
-        <v>500903</v>
+        <v>15009003</v>
       </c>
       <c r="P24" s="1">
         <v>2</v>
       </c>
       <c r="Q24" s="1">
-        <v>500904</v>
+        <v>15009004</v>
       </c>
       <c r="R24" s="1">
         <v>3</v>
       </c>
       <c r="S24" s="1">
-        <v>500905</v>
+        <v>15009005</v>
       </c>
       <c r="T24" s="1">
         <v>4</v>
       </c>
       <c r="U24" s="1">
-        <v>500906</v>
+        <v>15009006</v>
       </c>
       <c r="V24" s="1">
         <v>5</v>
       </c>
       <c r="W24" s="1">
-        <v>500907</v>
+        <v>15009007</v>
       </c>
       <c r="X24" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y24" s="1">
-        <v>500908</v>
+        <v>15009008</v>
       </c>
       <c r="Z24" s="1">
         <v>7</v>
       </c>
       <c r="AA24" s="1">
-        <v>500909</v>
+        <v>15009009</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>5010</v>
+        <v>15010</v>
       </c>
       <c r="B25" s="1">
         <v>5</v>
@@ -2651,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2661,60 +2793,60 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1">
-        <v>501001</v>
+        <v>15010001</v>
       </c>
       <c r="L25" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M25" s="1">
-        <v>501002</v>
+        <v>15010002</v>
       </c>
       <c r="N25" s="1">
         <v>1</v>
       </c>
       <c r="O25" s="1">
-        <v>501003</v>
+        <v>15010003</v>
       </c>
       <c r="P25" s="1">
         <v>2</v>
       </c>
       <c r="Q25" s="1">
-        <v>501004</v>
+        <v>15010004</v>
       </c>
       <c r="R25" s="1">
         <v>3</v>
       </c>
       <c r="S25" s="1">
-        <v>501005</v>
+        <v>15010005</v>
       </c>
       <c r="T25" s="1">
         <v>4</v>
       </c>
       <c r="U25" s="1">
-        <v>501006</v>
+        <v>15010006</v>
       </c>
       <c r="V25" s="1">
         <v>5</v>
       </c>
       <c r="W25" s="1">
-        <v>501007</v>
+        <v>15010007</v>
       </c>
       <c r="X25" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y25" s="1">
-        <v>501008</v>
+        <v>15010008</v>
       </c>
       <c r="Z25" s="1">
         <v>7</v>
       </c>
       <c r="AA25" s="1">
-        <v>501009</v>
+        <v>15010009</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>6001</v>
+        <v>16001</v>
       </c>
       <c r="B26" s="1">
         <v>6</v>
@@ -2729,75 +2861,59 @@
         <v>200</v>
       </c>
       <c r="F26" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="K26" s="1">
-        <v>600101</v>
+        <v>16001001</v>
       </c>
       <c r="L26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" s="1">
-        <v>600102</v>
+        <v>16001002</v>
       </c>
       <c r="N26" s="1">
         <v>1</v>
       </c>
       <c r="O26" s="1">
-        <v>600103</v>
+        <v>16001003</v>
       </c>
       <c r="P26" s="1">
         <v>2</v>
       </c>
       <c r="Q26" s="1">
-        <v>600104</v>
+        <v>16001004</v>
       </c>
       <c r="R26" s="1">
         <v>3</v>
       </c>
       <c r="S26" s="1">
-        <v>600105</v>
-      </c>
-      <c r="T26" s="1">
-        <v>4</v>
-      </c>
-      <c r="U26" s="1">
-        <v>600106</v>
-      </c>
-      <c r="V26" s="1">
-        <v>5</v>
-      </c>
-      <c r="W26" s="1">
-        <v>600107</v>
-      </c>
-      <c r="X26" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>600108</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>600109</v>
-      </c>
+        <v>16001005</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>6002</v>
+        <v>16002</v>
       </c>
       <c r="B27" s="1">
         <v>6</v>
@@ -2812,75 +2928,59 @@
         <v>200</v>
       </c>
       <c r="F27" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K27" s="1">
-        <v>600201</v>
+        <v>16002001</v>
       </c>
       <c r="L27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M27" s="1">
-        <v>600202</v>
+        <v>16002002</v>
       </c>
       <c r="N27" s="1">
         <v>1</v>
       </c>
       <c r="O27" s="1">
-        <v>600203</v>
+        <v>16002003</v>
       </c>
       <c r="P27" s="1">
         <v>2</v>
       </c>
       <c r="Q27" s="1">
-        <v>600204</v>
+        <v>16002004</v>
       </c>
       <c r="R27" s="1">
         <v>3</v>
       </c>
       <c r="S27" s="1">
-        <v>600205</v>
-      </c>
-      <c r="T27" s="1">
-        <v>4</v>
-      </c>
-      <c r="U27" s="1">
-        <v>600206</v>
-      </c>
-      <c r="V27" s="1">
-        <v>5</v>
-      </c>
-      <c r="W27" s="1">
-        <v>600207</v>
-      </c>
-      <c r="X27" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>600208</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>600209</v>
-      </c>
+        <v>16002005</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>6003</v>
+        <v>16003</v>
       </c>
       <c r="B28" s="1">
         <v>6</v>
@@ -2895,75 +2995,59 @@
         <v>200</v>
       </c>
       <c r="F28" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K28" s="1">
-        <v>600301</v>
+        <v>16003001</v>
       </c>
       <c r="L28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M28" s="1">
-        <v>600302</v>
+        <v>16003002</v>
       </c>
       <c r="N28" s="1">
         <v>1</v>
       </c>
       <c r="O28" s="1">
-        <v>600303</v>
+        <v>16003003</v>
       </c>
       <c r="P28" s="1">
         <v>2</v>
       </c>
       <c r="Q28" s="1">
-        <v>600304</v>
+        <v>16003004</v>
       </c>
       <c r="R28" s="1">
         <v>3</v>
       </c>
       <c r="S28" s="1">
-        <v>600305</v>
-      </c>
-      <c r="T28" s="1">
-        <v>4</v>
-      </c>
-      <c r="U28" s="1">
-        <v>600306</v>
-      </c>
-      <c r="V28" s="1">
-        <v>5</v>
-      </c>
-      <c r="W28" s="1">
-        <v>600307</v>
-      </c>
-      <c r="X28" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>600308</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>600309</v>
-      </c>
+        <v>16003005</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>6004</v>
+        <v>16004</v>
       </c>
       <c r="B29" s="1">
         <v>6</v>
@@ -2978,75 +3062,59 @@
         <v>200</v>
       </c>
       <c r="F29" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K29" s="1">
-        <v>600401</v>
+        <v>16004001</v>
       </c>
       <c r="L29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M29" s="1">
-        <v>600402</v>
+        <v>16004002</v>
       </c>
       <c r="N29" s="1">
         <v>1</v>
       </c>
       <c r="O29" s="1">
-        <v>600403</v>
+        <v>16004003</v>
       </c>
       <c r="P29" s="1">
         <v>2</v>
       </c>
       <c r="Q29" s="1">
-        <v>600404</v>
+        <v>16004004</v>
       </c>
       <c r="R29" s="1">
         <v>3</v>
       </c>
       <c r="S29" s="1">
-        <v>600405</v>
-      </c>
-      <c r="T29" s="1">
-        <v>4</v>
-      </c>
-      <c r="U29" s="1">
-        <v>600406</v>
-      </c>
-      <c r="V29" s="1">
-        <v>5</v>
-      </c>
-      <c r="W29" s="1">
-        <v>600407</v>
-      </c>
-      <c r="X29" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>600408</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>600409</v>
-      </c>
+        <v>16004005</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>6005</v>
+        <v>16005</v>
       </c>
       <c r="B30" s="1">
         <v>6</v>
@@ -3061,75 +3129,59 @@
         <v>200</v>
       </c>
       <c r="F30" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K30" s="1">
-        <v>600501</v>
+        <v>16005001</v>
       </c>
       <c r="L30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M30" s="1">
-        <v>600502</v>
+        <v>16005002</v>
       </c>
       <c r="N30" s="1">
         <v>1</v>
       </c>
       <c r="O30" s="1">
-        <v>600503</v>
+        <v>16005003</v>
       </c>
       <c r="P30" s="1">
         <v>2</v>
       </c>
       <c r="Q30" s="1">
-        <v>600504</v>
+        <v>16005004</v>
       </c>
       <c r="R30" s="1">
         <v>3</v>
       </c>
       <c r="S30" s="1">
-        <v>600505</v>
-      </c>
-      <c r="T30" s="1">
-        <v>4</v>
-      </c>
-      <c r="U30" s="1">
-        <v>600506</v>
-      </c>
-      <c r="V30" s="1">
-        <v>5</v>
-      </c>
-      <c r="W30" s="1">
-        <v>600507</v>
-      </c>
-      <c r="X30" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>600508</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>600509</v>
-      </c>
+        <v>16005005</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>6006</v>
+        <v>16006</v>
       </c>
       <c r="B31" s="1">
         <v>6</v>
@@ -3144,75 +3196,59 @@
         <v>200</v>
       </c>
       <c r="F31" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K31" s="1">
-        <v>600601</v>
+        <v>16006001</v>
       </c>
       <c r="L31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31" s="1">
-        <v>600602</v>
+        <v>16006002</v>
       </c>
       <c r="N31" s="1">
         <v>1</v>
       </c>
       <c r="O31" s="1">
-        <v>600603</v>
+        <v>16006003</v>
       </c>
       <c r="P31" s="1">
         <v>2</v>
       </c>
       <c r="Q31" s="1">
-        <v>600604</v>
+        <v>16006004</v>
       </c>
       <c r="R31" s="1">
         <v>3</v>
       </c>
       <c r="S31" s="1">
-        <v>600605</v>
-      </c>
-      <c r="T31" s="1">
-        <v>4</v>
-      </c>
-      <c r="U31" s="1">
-        <v>600606</v>
-      </c>
-      <c r="V31" s="1">
-        <v>5</v>
-      </c>
-      <c r="W31" s="1">
-        <v>600607</v>
-      </c>
-      <c r="X31" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y31" s="1">
-        <v>600608</v>
-      </c>
-      <c r="Z31" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA31" s="1">
-        <v>600609</v>
-      </c>
+        <v>16006005</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>6007</v>
+        <v>16007</v>
       </c>
       <c r="B32" s="1">
         <v>6</v>
@@ -3227,75 +3263,59 @@
         <v>200</v>
       </c>
       <c r="F32" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K32" s="1">
-        <v>600701</v>
+        <v>16007001</v>
       </c>
       <c r="L32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M32" s="1">
-        <v>600702</v>
+        <v>16007002</v>
       </c>
       <c r="N32" s="1">
         <v>1</v>
       </c>
       <c r="O32" s="1">
-        <v>600703</v>
+        <v>16007003</v>
       </c>
       <c r="P32" s="1">
         <v>2</v>
       </c>
       <c r="Q32" s="1">
-        <v>600704</v>
+        <v>16007004</v>
       </c>
       <c r="R32" s="1">
         <v>3</v>
       </c>
       <c r="S32" s="1">
-        <v>600705</v>
-      </c>
-      <c r="T32" s="1">
-        <v>4</v>
-      </c>
-      <c r="U32" s="1">
-        <v>600706</v>
-      </c>
-      <c r="V32" s="1">
-        <v>5</v>
-      </c>
-      <c r="W32" s="1">
-        <v>600707</v>
-      </c>
-      <c r="X32" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>600708</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>600709</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+        <v>16007005</v>
+      </c>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>7001</v>
+        <v>17001</v>
       </c>
       <c r="B33" s="1">
         <v>7</v>
@@ -3317,22 +3337,60 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1">
-        <v>700101</v>
+        <v>14001001</v>
       </c>
       <c r="L33" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" ref="M33:M42" si="0">K33+1</f>
-        <v>700102</v>
+        <v>14001002</v>
       </c>
       <c r="N33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O33" s="1">
+        <v>14001003</v>
+      </c>
+      <c r="P33" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>14001004</v>
+      </c>
+      <c r="R33" s="1">
+        <v>3</v>
+      </c>
+      <c r="S33" s="1">
+        <v>14001005</v>
+      </c>
+      <c r="T33" s="1">
+        <v>4</v>
+      </c>
+      <c r="U33" s="1">
+        <v>14001006</v>
+      </c>
+      <c r="V33" s="1">
+        <v>5</v>
+      </c>
+      <c r="W33" s="1">
+        <v>14001007</v>
+      </c>
+      <c r="X33" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>14001008</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>14001009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>7002</v>
+        <v>17002</v>
       </c>
       <c r="B34" s="1">
         <v>7</v>
@@ -3354,22 +3412,60 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1">
-        <v>700201</v>
+        <v>14002001</v>
       </c>
       <c r="L34" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="0"/>
-        <v>700202</v>
+        <v>14002002</v>
       </c>
       <c r="N34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O34" s="1">
+        <v>14002003</v>
+      </c>
+      <c r="P34" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>14002004</v>
+      </c>
+      <c r="R34" s="1">
+        <v>3</v>
+      </c>
+      <c r="S34" s="1">
+        <v>14002005</v>
+      </c>
+      <c r="T34" s="1">
+        <v>4</v>
+      </c>
+      <c r="U34" s="1">
+        <v>14002006</v>
+      </c>
+      <c r="V34" s="1">
+        <v>5</v>
+      </c>
+      <c r="W34" s="1">
+        <v>14002007</v>
+      </c>
+      <c r="X34" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>14002008</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>14002009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>7003</v>
+        <v>17003</v>
       </c>
       <c r="B35" s="1">
         <v>7</v>
@@ -3391,22 +3487,60 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1">
-        <v>700301</v>
+        <v>14003001</v>
       </c>
       <c r="L35" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="0"/>
-        <v>700302</v>
+        <v>14003002</v>
       </c>
       <c r="N35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O35" s="1">
+        <v>14003003</v>
+      </c>
+      <c r="P35" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>14003004</v>
+      </c>
+      <c r="R35" s="1">
+        <v>3</v>
+      </c>
+      <c r="S35" s="1">
+        <v>14003005</v>
+      </c>
+      <c r="T35" s="1">
+        <v>4</v>
+      </c>
+      <c r="U35" s="1">
+        <v>14003006</v>
+      </c>
+      <c r="V35" s="1">
+        <v>5</v>
+      </c>
+      <c r="W35" s="1">
+        <v>14003007</v>
+      </c>
+      <c r="X35" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>14003008</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>14003009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>7004</v>
+        <v>17004</v>
       </c>
       <c r="B36" s="1">
         <v>7</v>
@@ -3428,22 +3562,60 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1">
-        <v>700401</v>
+        <v>14004001</v>
       </c>
       <c r="L36" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="0"/>
-        <v>700402</v>
+        <v>14004002</v>
       </c>
       <c r="N36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O36" s="1">
+        <v>14004003</v>
+      </c>
+      <c r="P36" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>14004004</v>
+      </c>
+      <c r="R36" s="1">
+        <v>3</v>
+      </c>
+      <c r="S36" s="1">
+        <v>14004005</v>
+      </c>
+      <c r="T36" s="1">
+        <v>4</v>
+      </c>
+      <c r="U36" s="1">
+        <v>14004006</v>
+      </c>
+      <c r="V36" s="1">
+        <v>5</v>
+      </c>
+      <c r="W36" s="1">
+        <v>14004007</v>
+      </c>
+      <c r="X36" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>14004008</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>14004009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>7005</v>
+        <v>17005</v>
       </c>
       <c r="B37" s="1">
         <v>7</v>
@@ -3465,22 +3637,60 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1">
-        <v>700501</v>
+        <v>14005001</v>
       </c>
       <c r="L37" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="0"/>
-        <v>700502</v>
+        <v>14005002</v>
       </c>
       <c r="N37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O37" s="1">
+        <v>14005003</v>
+      </c>
+      <c r="P37" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>14005004</v>
+      </c>
+      <c r="R37" s="1">
+        <v>3</v>
+      </c>
+      <c r="S37" s="1">
+        <v>14005005</v>
+      </c>
+      <c r="T37" s="1">
+        <v>4</v>
+      </c>
+      <c r="U37" s="1">
+        <v>14005006</v>
+      </c>
+      <c r="V37" s="1">
+        <v>5</v>
+      </c>
+      <c r="W37" s="1">
+        <v>14005007</v>
+      </c>
+      <c r="X37" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>14005008</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>14005009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>7006</v>
+        <v>17006</v>
       </c>
       <c r="B38" s="1">
         <v>7</v>
@@ -3502,22 +3712,60 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1">
-        <v>700601</v>
+        <v>14006001</v>
       </c>
       <c r="L38" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="0"/>
-        <v>700602</v>
+        <v>14006002</v>
       </c>
       <c r="N38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O38" s="1">
+        <v>14006003</v>
+      </c>
+      <c r="P38" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>14006004</v>
+      </c>
+      <c r="R38" s="1">
+        <v>3</v>
+      </c>
+      <c r="S38" s="1">
+        <v>14006005</v>
+      </c>
+      <c r="T38" s="1">
+        <v>4</v>
+      </c>
+      <c r="U38" s="1">
+        <v>14006006</v>
+      </c>
+      <c r="V38" s="1">
+        <v>5</v>
+      </c>
+      <c r="W38" s="1">
+        <v>14006007</v>
+      </c>
+      <c r="X38" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>14006008</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>14006009</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>7007</v>
+        <v>17007</v>
       </c>
       <c r="B39" s="1">
         <v>7</v>
@@ -3539,22 +3787,60 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1">
-        <v>700701</v>
+        <v>14007001</v>
       </c>
       <c r="L39" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="0"/>
-        <v>700702</v>
+        <v>14007002</v>
       </c>
       <c r="N39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O39" s="1">
+        <v>14007003</v>
+      </c>
+      <c r="P39" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>14007004</v>
+      </c>
+      <c r="R39" s="1">
+        <v>3</v>
+      </c>
+      <c r="S39" s="1">
+        <v>14007005</v>
+      </c>
+      <c r="T39" s="1">
+        <v>4</v>
+      </c>
+      <c r="U39" s="1">
+        <v>14007006</v>
+      </c>
+      <c r="V39" s="1">
+        <v>5</v>
+      </c>
+      <c r="W39" s="1">
+        <v>14007007</v>
+      </c>
+      <c r="X39" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>14007008</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>14007009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>7008</v>
+        <v>17008</v>
       </c>
       <c r="B40" s="1">
         <v>7</v>
@@ -3576,22 +3862,60 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1">
-        <v>700801</v>
+        <v>14008001</v>
       </c>
       <c r="L40" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="0"/>
-        <v>700802</v>
+        <v>14008002</v>
       </c>
       <c r="N40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O40" s="1">
+        <v>14008003</v>
+      </c>
+      <c r="P40" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>14008004</v>
+      </c>
+      <c r="R40" s="1">
+        <v>3</v>
+      </c>
+      <c r="S40" s="1">
+        <v>14008005</v>
+      </c>
+      <c r="T40" s="1">
+        <v>4</v>
+      </c>
+      <c r="U40" s="1">
+        <v>14008006</v>
+      </c>
+      <c r="V40" s="1">
+        <v>5</v>
+      </c>
+      <c r="W40" s="1">
+        <v>14008007</v>
+      </c>
+      <c r="X40" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>14008008</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>14008009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>7009</v>
+        <v>17009</v>
       </c>
       <c r="B41" s="1">
         <v>7</v>
@@ -3613,22 +3937,60 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1">
-        <v>700901</v>
+        <v>14009001</v>
       </c>
       <c r="L41" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="0"/>
-        <v>700902</v>
+        <v>14009002</v>
       </c>
       <c r="N41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O41" s="1">
+        <v>14009003</v>
+      </c>
+      <c r="P41" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>14009004</v>
+      </c>
+      <c r="R41" s="1">
+        <v>3</v>
+      </c>
+      <c r="S41" s="1">
+        <v>14009005</v>
+      </c>
+      <c r="T41" s="1">
+        <v>4</v>
+      </c>
+      <c r="U41" s="1">
+        <v>14009006</v>
+      </c>
+      <c r="V41" s="1">
+        <v>5</v>
+      </c>
+      <c r="W41" s="1">
+        <v>14009007</v>
+      </c>
+      <c r="X41" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>14009008</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>14009009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>7010</v>
+        <v>17010</v>
       </c>
       <c r="B42" s="1">
         <v>7</v>
@@ -3650,17 +4012,55 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1">
-        <v>701001</v>
+        <v>14010001</v>
       </c>
       <c r="L42" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="0"/>
-        <v>701002</v>
+        <v>14010002</v>
       </c>
       <c r="N42" s="1">
         <v>1</v>
+      </c>
+      <c r="O42" s="1">
+        <v>14010003</v>
+      </c>
+      <c r="P42" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>14010004</v>
+      </c>
+      <c r="R42" s="1">
+        <v>3</v>
+      </c>
+      <c r="S42" s="1">
+        <v>14010005</v>
+      </c>
+      <c r="T42" s="1">
+        <v>4</v>
+      </c>
+      <c r="U42" s="1">
+        <v>14010006</v>
+      </c>
+      <c r="V42" s="1">
+        <v>5</v>
+      </c>
+      <c r="W42" s="1">
+        <v>14010007</v>
+      </c>
+      <c r="X42" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>14010008</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>14010009</v>
       </c>
     </row>
   </sheetData>
@@ -3672,10 +4072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ50"/>
+  <dimension ref="A1:AQ67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A15"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5616,7 +6016,7 @@
         <v>53</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>53</v>
@@ -6891,6 +7291,9 @@
       <c r="C44" t="s">
         <v>66</v>
       </c>
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B45">
@@ -6907,6 +7310,9 @@
       <c r="C46" t="s">
         <v>68</v>
       </c>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B47">
@@ -6915,6 +7321,9 @@
       <c r="C47" t="s">
         <v>69</v>
       </c>
+      <c r="D47" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B48">
@@ -6923,21 +7332,239 @@
       <c r="C48" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49">
         <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50">
         <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55">
+        <v>0.2</v>
+      </c>
+      <c r="F55">
+        <v>600</v>
+      </c>
+      <c r="G55">
+        <f>E55*F55</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56">
+        <v>0.16</v>
+      </c>
+      <c r="F56">
+        <v>600</v>
+      </c>
+      <c r="G56">
+        <f>E56*F56</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57">
+        <v>0.16</v>
+      </c>
+      <c r="F57">
+        <v>600</v>
+      </c>
+      <c r="G57">
+        <f>E57*F57</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D58" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58">
+        <v>0.48</v>
+      </c>
+      <c r="F58">
+        <f>2^4*5</f>
+        <v>80</v>
+      </c>
+      <c r="G58">
+        <f>E58*F58</f>
+        <v>38.4</v>
+      </c>
+      <c r="H58">
+        <f>SUM(G55:G58)</f>
+        <v>350.4</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D60" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60">
+        <v>0.05</v>
+      </c>
+      <c r="F60">
+        <v>600</v>
+      </c>
+      <c r="G60">
+        <f>E60*F60</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D61" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61">
+        <v>0.05</v>
+      </c>
+      <c r="F61">
+        <v>600</v>
+      </c>
+      <c r="G61">
+        <f>E61*F61</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D62" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62">
+        <v>0.05</v>
+      </c>
+      <c r="F62">
+        <v>600</v>
+      </c>
+      <c r="G62">
+        <f t="shared" ref="G62" si="0">E62*F62</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63">
+        <v>0.1</v>
+      </c>
+      <c r="F63">
+        <v>18</v>
+      </c>
+      <c r="G63">
+        <f>E63*F63</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D64" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64">
+        <v>0.15</v>
+      </c>
+      <c r="F64">
+        <v>18</v>
+      </c>
+      <c r="G64">
+        <f t="shared" ref="G64:G67" si="1">E64*F64</f>
+        <v>2.6999999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D65" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65">
+        <v>0.15</v>
+      </c>
+      <c r="F65">
+        <v>18</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>2.6999999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66">
+        <v>0.24</v>
+      </c>
+      <c r="F66">
+        <f>2^3*5</f>
+        <v>40</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="67" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D67" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67">
+        <v>0.21</v>
+      </c>
+      <c r="F67">
+        <f>2^4*5</f>
+        <v>80</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>16.8</v>
+      </c>
+      <c r="H67">
+        <f>SUM(G60:G67)</f>
+        <v>123.6</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <f>(H58*I58+H67*I67)/(I58+I67)</f>
+        <v>180.29999999999998</v>
       </c>
     </row>
   </sheetData>
